--- a/모델사이즈비교.xlsx
+++ b/모델사이즈비교.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,22 @@
   </si>
   <si>
     <t>4배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global variable 포함 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.58M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,13 +197,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,10 +234,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +546,7 @@
   <dimension ref="F3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -521,6 +555,7 @@
     <col min="7" max="7" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:10">
@@ -548,9 +583,12 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="6:10">
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -559,17 +597,25 @@
       <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="6:10">
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="3" t="s">
@@ -584,7 +630,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="6:10">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -598,7 +644,7 @@
       </c>
     </row>
     <row r="12" spans="6:10">
-      <c r="F12" s="8"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
